--- a/db/restfulAPI.xlsx
+++ b/db/restfulAPI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>router</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,13 @@
   </si>
   <si>
     <t>orderUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getMyInfo</t>
+  </si>
+  <si>
+    <t>获取我的个人信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,13 +455,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,19 +754,19 @@
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -770,7 +777,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -779,7 +786,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -788,7 +795,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -797,7 +804,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -806,7 +813,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -815,7 +822,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -824,7 +831,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -835,7 +842,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -844,7 +851,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -853,7 +860,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -862,7 +869,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
@@ -873,288 +880,298 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
         <v>65</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>68</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" t="s">
         <v>70</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" t="s">
         <v>72</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" t="s">
         <v>74</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" t="s">
         <v>76</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" t="s">
         <v>78</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" t="s">
         <v>80</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>82</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" t="s">
         <v>85</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>88</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
         <v>92</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
+  <mergeCells count="9">
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A43"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/restfulAPI.xlsx
+++ b/db/restfulAPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
@@ -41,14 +41,336 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>getCategoryList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取商品类目列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取商品类目详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增商品类目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品类目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品类目上下架状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryPopUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品类目排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categorySortUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除商品类目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileEdit</t>
+  </si>
+  <si>
+    <t>修改文件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除图片文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取商品信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取商品详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getGoodsDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增商品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品上下架状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsPopUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsSortUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取banner图列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBannerList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增banner图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新banner图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerSortUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner上下架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerPopUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取banner图对应的商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBannerGoodsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增banner图对应的商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerGoodsAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除banner图对应的商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerGoodsDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改banner图对应商品的排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerGoodsIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取系统管理员列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAdmAccountList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取系统管理员详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAdmAccountDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增系统管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admAccountAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新系统管理员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admAccountUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除系统管理员</t>
+  </si>
+  <si>
+    <t>admAccountDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改系统管理员密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admAccountPwdChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置,取消超级管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admAccountSuper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOrderList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOrderDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改订单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getMyInfo</t>
+  </si>
+  <si>
+    <t>获取我的个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>category</t>
-  </si>
-  <si>
-    <t>getCategoryList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取商品类目列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryAdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -56,351 +378,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取商品类目详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增商品类目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>categoryAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>categoryUpdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改商品类目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改商品类目上下架状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>categoryPopUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改商品类目排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>categorySortUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除商品类目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>categoryDelete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getGoodsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>file</t>
-  </si>
-  <si>
-    <t>fileList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取文件列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileEdit</t>
-  </si>
-  <si>
-    <t>修改文件信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除图片文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginSystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getGoodsList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取商品信息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取商品详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getGoodsDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增商品信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改商品信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改商品上下架状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsPopUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsSortUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取banner图列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBannerList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增banner图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新banner图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerSortUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner上下架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerPopUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除banner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerGoods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取banner图对应的商品列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBannerGoodsList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增banner图对应的商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerGoodsAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除banner图对应的商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerGoodsDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改banner图对应商品的排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerGoodsIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取系统管理员列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAdmAccountList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取系统管理员详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAdmAccountDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增系统管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admAccountAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新系统管理员信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admAccountUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除系统管理员</t>
-  </si>
-  <si>
-    <t>admAccountDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改系统管理员密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admAccountPwdChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置,取消超级管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admAccountSuper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getUserList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getUserDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOrderList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOrderDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改订单信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getMyInfo</t>
-  </si>
-  <si>
-    <t>获取我的个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,7 +756,7 @@
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,400 +767,430 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/db/restfulAPI.xlsx
+++ b/db/restfulAPI.xlsx
@@ -140,269 +140,269 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>修改商品上下架状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsPopUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsSortUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取banner图列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBannerList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增banner图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新banner图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerSortUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner上下架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerPopUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取banner图对应的商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBannerGoodsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增banner图对应的商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerGoodsAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除banner图对应的商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerGoodsDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改banner图对应商品的排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerGoodsIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取系统管理员列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAdmAccountList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取系统管理员详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAdmAccountDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增系统管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admAccountAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新系统管理员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admAccountUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除系统管理员</t>
+  </si>
+  <si>
+    <t>admAccountDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改系统管理员密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admAccountPwdChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置,取消超级管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admAccountSuper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOrderList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOrderDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改订单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getMyInfo</t>
+  </si>
+  <si>
+    <t>获取我的个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCategoryDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getGoodsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>goodsUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改商品上下架状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsPopUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsSortUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取banner图列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBannerList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增banner图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新banner图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerSortUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner上下架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerPopUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除banner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerGoods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取banner图对应的商品列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBannerGoodsList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增banner图对应的商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerGoodsAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除banner图对应的商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerGoodsDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改banner图对应商品的排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bannerGoodsIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取系统管理员列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAdmAccountList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取系统管理员详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAdmAccountDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增系统管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admAccountAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新系统管理员信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admAccountUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除系统管理员</t>
-  </si>
-  <si>
-    <t>admAccountDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改系统管理员密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admAccountPwdChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置,取消超级管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admAccountSuper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getUserList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getUserDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOrderList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOrderDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改订单信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getMyInfo</t>
-  </si>
-  <si>
-    <t>获取我的个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>categoryAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCategoryDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>categoryUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>categoryDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getGoodsList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uploadFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,7 +769,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -784,7 +784,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -796,7 +796,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -808,7 +808,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -841,7 +841,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -864,7 +864,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -908,18 +908,18 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -936,11 +936,14 @@
       <c r="C16" t="s">
         <v>24</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -952,25 +955,28 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -979,218 +985,221 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
         <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
